--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -575,7 +575,7 @@
         <v>45680</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44539</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>45474</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45672.48186342593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45476.57167824074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>45237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>45805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45985.5733912037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45484</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45915.62523148148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44722</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>45174.92293981482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>45993</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>45672.48600694445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>45832.63534722223</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>45596</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>45810</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45986.63600694444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45986.36518518518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44552</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>45476.54096064815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>45813</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>45786.44121527778</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>45940.51069444444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45986.3443287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>44474</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>44490</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45841.36481481481</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>44441.94325231481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>45440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>45134</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>45799.34494212963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>45114</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>46013.39665509259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>46042</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>44545</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>45699</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>45124</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45789.60505787037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44726</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45748</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>45884.53171296296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>45957.53907407408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>45971.61633101852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>45981.46185185185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>45484</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>45992.61405092593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>45783.53160879629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>44391</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45567</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45608</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>45567</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45891.58591435185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>45826.34621527778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>45915.65525462963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>45918.38981481481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45919.56230324074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>45170</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>45838.69793981482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>45845.5409375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>45944.61743055555</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45958.34751157407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>45876.4228125</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>45974.63607638889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>45225</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>45672</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>45572.67306712963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>46027</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>45600.42096064815</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>45611.37796296296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>45596</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44404</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>44820</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44393</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>44433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>44543</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>44543</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>44543</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44543</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44244</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>44810</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>44543</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44586</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44586.93454861111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44362</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44663</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44586.93534722222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44433</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44539</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44378</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>44246</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44638</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>44433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>44433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>44743</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44539</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>44543.94331018518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44543.94414351852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>44586</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44573</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44820</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44417</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44824</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44824</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44358</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44244</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44532</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44868</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44382</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>45394</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>45028</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>45505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>45106.94556712963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45671</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>45699</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>44841</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44539.94476851852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>45306</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>44824</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45596.34576388889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>45596.34599537037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>45586</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>45491</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>45558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11950,7 +11950,7 @@
         <v>45482</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12007,7 +12007,7 @@
         <v>45770.38886574074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>45463</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>45222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>45596.6649537037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>45799.34543981482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>45799.34598379629</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>45476.49958333333</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>45799.34662037037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>45086</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>45482</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>45664.4005787037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>45677.61483796296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44841</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>45544</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>45258</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>45259.49666666667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>45572.66908564815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>44984.94069444444</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44984.94076388889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>45622</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>45608</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>45349</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>45597</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>45425</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>45596</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>45124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>45532</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>45891.58376157407</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>45649</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>45813.65023148148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>45935</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44984.93940972222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>44984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>45897.46922453704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>45897.38686342593</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>45897</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45664</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>45664</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>45819.59027777778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>45590</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>45901.344375</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>45819.63649305556</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>45819.59802083333</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>45679</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>45824</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>45693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>45904</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>45905.61263888889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45904.34486111111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44862</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>45909.34434027778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>45909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>45824</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>45907</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45824.63607638889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>45257</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45488</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45323</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45610</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>45827.34571759259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45915.44868055556</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45912.34276620371</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>45912</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>45827.34537037037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>45827.34717592593</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>45827.34607638889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>45827.34640046296</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45827.34695601852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45827.34756944444</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>45826.34438657408</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>45826.3453125</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45826.345</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45826.34565972222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>45124.95214120371</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>45917.59425925926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>45917.4485300926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16733,7 +16733,7 @@
         <v>45919.34540509259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         <v>45918.61519675926</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>45646.68362268519</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>45646</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>45919.34533564815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>45918.42957175926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>45043</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45842.34456018519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>45516</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>45925.66606481482</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45925.67710648148</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45925.66335648148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45887</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>45517.3762037037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>45671</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>45613.67967592592</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>45928.34450231482</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>45931</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>44462</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>45931</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>45834</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>45903</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>45930.67752314815</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>44889</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>45838.70071759259</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>45596.34523148148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44841</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>45170.95657407407</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44966</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45933</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>45933</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>45841.57357638889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>45933</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>45841.53164351852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>45841.54601851852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>44391</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>45912</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>45602</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>45841.57400462963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>45939.34488425926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>45841.3704050926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>45937.53831018518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>45939.34547453704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>45474.95037037037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>45474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>45474</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>45942.61506944444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>45942.61520833334</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>45943.62515046296</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>45940.58270833334</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         <v>45940.50591435185</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19825,7 +19825,7 @@
         <v>45842.3446875</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>45610.58070601852</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>45944.62211805556</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45946.34598379629</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>45946.34690972222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45946.36519675926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>45947.3453125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>45946.36513888889</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45852.34420138889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>45491</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45664.34549768519</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45951.55287037037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45951.57585648148</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45951.55253472222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45856.36497685185</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45951.58004629629</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>45951.34469907408</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>45951</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         <v>45755.46942129629</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45951.51141203703</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>45861.4019212963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>45951</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45951.57743055555</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>45951.57791666667</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>45950.63737268518</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>45950.63739583334</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21412,7 +21412,7 @@
         <v>45953.59836805556</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>45953.56256944445</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21536,7 +21536,7 @@
         <v>45952.69846064815</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>45867.38582175926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21660,7 +21660,7 @@
         <v>44984</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>44493</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>45953.59943287037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45953.59979166667</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>45868.5107175926</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>45953.59483796296</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44238</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>45957</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22151,7 +22151,7 @@
         <v>45807</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>45868.40723379629</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45534.64626157407</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22337,7 +22337,7 @@
         <v>45957</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>45526.39714120371</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         <v>45110.92523148148</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
         <v>45875.51827546296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22570,7 +22570,7 @@
         <v>45216</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>45028</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>45721</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>45960</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>45965.65212962963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>45880.57349537037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>45964.67798611111</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>45881.57443287037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>45965.72071759259</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>45967</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>45649</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>44378</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>45883</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>45883.34554398148</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>44437</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>44984</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>45971.6684837963</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>45875.69855324074</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45968.5525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>45973.55615740741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45973.58731481482</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23832,7 +23832,7 @@
         <v>45883.34521990741</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>45972.40754629629</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>45975</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         <v>45974.63550925926</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>45974.63583333333</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>45974.72184027778</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24204,7 +24204,7 @@
         <v>44589</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>45884.49027777778</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>45974.63099537037</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45974.63530092593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>45974.59608796296</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24509,7 +24509,7 @@
         <v>45975.34825231481</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24566,7 +24566,7 @@
         <v>45974.64890046296</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>45168.93785879629</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45974.68207175926</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45974.44472222222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         <v>45974.44701388889</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         <v>45884.46925925926</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>45737</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>45979.65127314815</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>45979.54135416666</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>45373</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25176,7 +25176,7 @@
         <v>45111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25233,7 +25233,7 @@
         <v>45516.63964120371</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25295,7 +25295,7 @@
         <v>45166</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25352,7 +25352,7 @@
         <v>45982.61763888889</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
         <v>45985.56795138889</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>45985.58361111111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>45985.58466435185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>46009</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25657,7 +25657,7 @@
         <v>46021.44820601852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>45110</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>45721</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>45743</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>44477</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>45986</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>45405.67028935185</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>45988.53171296296</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>46030.38719907407</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>45993</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>45973</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45994</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26366,7 +26366,7 @@
         <v>46030.49018518518</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>45988.42763888889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>45993.54810185185</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>45073</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>45544</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45609</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
         <v>45992.45447916666</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>45113.95096064815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>45994.68775462963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45995.42780092593</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>45995</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45258</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45601.66423611111</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44980</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44980</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27296,7 +27296,7 @@
         <v>45604.34443287037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>45994.42386574074</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45474.95196759259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>45474.95246527778</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>45397.95770833334</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27606,7 +27606,7 @@
         <v>45610</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>45649</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27730,7 +27730,7 @@
         <v>44868</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>45953</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>45197.59248842593</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>45860</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27963,7 +27963,7 @@
         <v>44477</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28020,7 +28020,7 @@
         <v>45520</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>46006.38633101852</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44425</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44854</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28263,7 +28263,7 @@
         <v>45526</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28320,7 +28320,7 @@
         <v>46048.63609953703</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28382,7 +28382,7 @@
         <v>45604.71908564815</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>45773.71444444444</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28501,7 +28501,7 @@
         <v>45678.61530092593</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28563,7 +28563,7 @@
         <v>45090</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>46043</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28677,7 +28677,7 @@
         <v>45474.94802083333</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28739,7 +28739,7 @@
         <v>45474</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45526.47293981481</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>46010</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28920,7 +28920,7 @@
         <v>46010</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28977,7 +28977,7 @@
         <v>46010</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>46010</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>46010</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>44802</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>44851</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>45534.30302083334</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29324,7 +29324,7 @@
         <v>44454</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29386,7 +29386,7 @@
         <v>45572</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29448,7 +29448,7 @@
         <v>45923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29505,7 +29505,7 @@
         <v>45883</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45572.67520833333</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>45572.67773148148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45113.95083333334</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45763.34474537037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29815,7 +29815,7 @@
         <v>45224</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45474.94982638889</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>45505</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>45611.65689814815</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30063,7 +30063,7 @@
         <v>45565.49210648148</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         <v>45113</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30249,7 +30249,7 @@
         <v>45222</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>45555.47401620371</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>44866</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30425,7 +30425,7 @@
         <v>45590</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>45078</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30611,7 +30611,7 @@
         <v>45608.69555555555</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30673,7 +30673,7 @@
         <v>45601.70364583333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30735,7 +30735,7 @@
         <v>45259.43483796297</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>45258.67847222222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>45028</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>45093</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30973,7 +30973,7 @@
         <v>45471.27252314815</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31035,7 +31035,7 @@
         <v>44355</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31097,7 +31097,7 @@
         <v>44984</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31159,7 +31159,7 @@
         <v>44841</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44841</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>44984</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44984</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31407,7 +31407,7 @@
         <v>44984</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31469,7 +31469,7 @@
         <v>44984</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31526,7 +31526,7 @@
         <v>44984.94033564815</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31588,7 +31588,7 @@
         <v>45490</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31645,7 +31645,7 @@
         <v>45764.46019675926</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31702,7 +31702,7 @@
         <v>45601.4096875</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>45639.58967592593</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>45601.51266203704</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>45022</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>45603.69465277778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32012,7 +32012,7 @@
         <v>45576</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>45603.71284722222</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32136,7 +32136,7 @@
         <v>44370</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32193,7 +32193,7 @@
         <v>45555.344375</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32255,7 +32255,7 @@
         <v>45258.60766203704</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32317,7 +32317,7 @@
         <v>45758</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32379,7 +32379,7 @@
         <v>45490</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32436,7 +32436,7 @@
         <v>45490</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32493,7 +32493,7 @@
         <v>45490</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32550,7 +32550,7 @@
         <v>45490</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32607,7 +32607,7 @@
         <v>45057</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32669,7 +32669,7 @@
         <v>45073</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32731,7 +32731,7 @@
         <v>45622</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32793,7 +32793,7 @@
         <v>45565.91135416667</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32850,7 +32850,7 @@
         <v>45645</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32907,7 +32907,7 @@
         <v>45197</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>44477</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>45451</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33083,7 +33083,7 @@
         <v>45783.96920138889</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33140,7 +33140,7 @@
         <v>45451</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33202,7 +33202,7 @@
         <v>45791.61278935185</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33264,7 +33264,7 @@
         <v>45603.92878472222</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -575,7 +575,7 @@
         <v>45680</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44539</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>45474</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45672.48186342593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45476.57167824074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>45237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>45805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45985.5733912037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45484</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45915.62523148148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44722</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>45174.92293981482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>45993</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>45672.48600694445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>45832.63534722223</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>45596</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>45810</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45986.63600694444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45986.36518518518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44552</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>45476.54096064815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>45813</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>45786.44121527778</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>45940.51069444444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45986.3443287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>44474</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>44490</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45841.36481481481</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>44441.94325231481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>45440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>45134</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>45799.34494212963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>45114</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>46013.39665509259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>46042</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>44545</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>45699</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>45124</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45789.60505787037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44726</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45748</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>45884.53171296296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>45957.53907407408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>45971.61633101852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>45981.46185185185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>45484</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>45992.61405092593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>45783.53160879629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>44391</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45567</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45608</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>45567</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45891.58591435185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>45826.34621527778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>45915.65525462963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>44545</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>45918.38981481481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45919.56230324074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>45170</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>45838.69793981482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         <v>45845.5409375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>45944.61743055555</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45958.34751157407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>45876.4228125</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>45974.63607638889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>45225</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>45672</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>45572.67306712963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>46027</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>45600.42096064815</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>45611.37796296296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>45596</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44404</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>44820</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>44676</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>44393</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>44433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>44543</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>44543</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>44543</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44543</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44244</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>44810</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>44543</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>44586</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>44586.93454861111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>44362</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>44663</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>44685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>44586.93534722222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44433</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>44539</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44378</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>44543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>44246</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44638</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>44433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>44433</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>44743</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44539</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>44543.94331018518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>44543.94414351852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>44586</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44573</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44820</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44417</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44824</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>44824</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44358</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44244</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44532</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44868</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44382</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>45394</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>45028</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44966</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>45505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>45106.94556712963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45671</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>45699</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>44841</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44539.94476851852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>45306</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>44824</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45596.34576388889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>45596.34599537037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>45586</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>45491</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>45558</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11950,7 +11950,7 @@
         <v>45482</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12007,7 +12007,7 @@
         <v>45770.38886574074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>45463</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>45222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>45596.6649537037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>45799.34543981482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>45799.34598379629</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>45476.49958333333</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>45799.34662037037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>45086</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>45482</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>45664.4005787037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>45677.61483796296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44841</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>45544</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>45258</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>45259.49666666667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>45572.66908564815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>44984.94069444444</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>44984.94076388889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>45622</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>45608</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>45349</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>45597</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>45425</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>45596</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>45124</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>45532</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>45891.58376157407</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>45649</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>45813.65023148148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>45935</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44984</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44984.93940972222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>44984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>45897.46922453704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>45897.38686342593</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>45897</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45664</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>45664</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>45819.59027777778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>45590</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>45901.344375</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>45819.63649305556</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>45819.59802083333</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>45679</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44873</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>45824</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>45693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>45904</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>45905.61263888889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45904.34486111111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44862</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>45909.34434027778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>45909</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>45824</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>45907</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45824.63607638889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>45257</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45488</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45323</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45610</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>45827.34571759259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         <v>45915.44868055556</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45912.34276620371</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>45912</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>45827.34537037037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>45827.34717592593</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>45827.34607638889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>45827.34640046296</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>45827.34695601852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45827.34756944444</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>45826.34438657408</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>45826.3453125</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>45826.345</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45826.34565972222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>45124.95214120371</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>45917.59425925926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>45917.4485300926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16733,7 +16733,7 @@
         <v>45919.34540509259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         <v>45918.61519675926</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>45646.68362268519</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>45646</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>45919.34533564815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>45918.42957175926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>45043</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45842.34456018519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>45516</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>45925.66606481482</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45925.67710648148</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45925.66335648148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45887</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>45517.3762037037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>45671</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>45613.67967592592</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>45928.34450231482</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>45931</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>44462</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>45931</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>45834</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>45903</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>45930.67752314815</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>44889</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>45838.70071759259</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>45596.34523148148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44841</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>45170.95657407407</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44966</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45933</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>45933</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>45841.57357638889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>45933</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>45841.53164351852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>45841.54601851852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>44391</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>45912</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>45602</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>45841.57400462963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>45939.34488425926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>45841.3704050926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>45937.53831018518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19267,7 +19267,7 @@
         <v>45939.34547453704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>45474.95037037037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>45474</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>45474</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>45942.61506944444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>45942.61520833334</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>45943.62515046296</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>45940.58270833334</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         <v>45940.50591435185</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19825,7 +19825,7 @@
         <v>45842.3446875</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>45610.58070601852</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>45944.62211805556</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45946.34598379629</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>45946.34690972222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45946.36519675926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>45947.3453125</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>45946.36513888889</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>45852.34420138889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>45491</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45664.34549768519</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45951.55287037037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45951.57585648148</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45951.55253472222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45856.36497685185</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45951.58004629629</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>45951.34469907408</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>45951</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         <v>45755.46942129629</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45951.51141203703</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>45861.4019212963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>45951</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45951.57743055555</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>45951.57791666667</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>45950.63737268518</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>45950.63739583334</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21412,7 +21412,7 @@
         <v>45953.59836805556</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>45953.56256944445</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21536,7 +21536,7 @@
         <v>45952.69846064815</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>45867.38582175926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21660,7 +21660,7 @@
         <v>44984</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21722,7 +21722,7 @@
         <v>44493</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>45953.59943287037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45953.59979166667</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>45868.5107175926</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>45953.59483796296</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44238</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>45957</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22151,7 +22151,7 @@
         <v>45807</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>45868.40723379629</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45534.64626157407</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22337,7 +22337,7 @@
         <v>45957</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>45526.39714120371</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         <v>45110.92523148148</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
         <v>45875.51827546296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22570,7 +22570,7 @@
         <v>45216</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>45028</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>45721</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>45960</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>45965.65212962963</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>45880.57349537037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>45964.67798611111</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>45881.57443287037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>45965.72071759259</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>45967</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>45649</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>44378</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>45883</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>45883.34554398148</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>44437</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>44984</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>45971.6684837963</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>45875.69855324074</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45968.5525</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>45973.55615740741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45973.58731481482</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23832,7 +23832,7 @@
         <v>45883.34521990741</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>45972.40754629629</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>45975</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         <v>45974.63550925926</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>45974.63583333333</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>45974.72184027778</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24204,7 +24204,7 @@
         <v>44589</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>45884.49027777778</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>45974.63099537037</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45974.63530092593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>45974.59608796296</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24509,7 +24509,7 @@
         <v>45975.34825231481</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24566,7 +24566,7 @@
         <v>45974.64890046296</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>45168.93785879629</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>45974.68207175926</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45974.44472222222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         <v>45974.44701388889</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         <v>45884.46925925926</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>45737</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>45979.65127314815</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>45979.54135416666</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25119,7 +25119,7 @@
         <v>45373</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25176,7 +25176,7 @@
         <v>45111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25233,7 +25233,7 @@
         <v>45516.63964120371</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25295,7 +25295,7 @@
         <v>45166</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25352,7 +25352,7 @@
         <v>45982.61763888889</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
         <v>45985.56795138889</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>45985.58361111111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>45985.58466435185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>46009</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25657,7 +25657,7 @@
         <v>46021.44820601852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>45110</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>45721</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>45743</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25885,7 +25885,7 @@
         <v>44477</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>45986</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25999,7 +25999,7 @@
         <v>45405.67028935185</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>45988.53171296296</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>46030.38719907407</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>45993</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>45973</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26304,7 +26304,7 @@
         <v>45994</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26366,7 +26366,7 @@
         <v>46030.49018518518</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26428,7 +26428,7 @@
         <v>45988.42763888889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>45993.54810185185</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>45073</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>45544</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45609</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
         <v>45992.45447916666</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26800,7 +26800,7 @@
         <v>45113.95096064815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>45994.68775462963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45995.42780092593</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>45995</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45258</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45601.66423611111</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>44980</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44980</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27296,7 +27296,7 @@
         <v>45604.34443287037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>45994.42386574074</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45474.95196759259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>45474.95246527778</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>45397.95770833334</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27606,7 +27606,7 @@
         <v>45610</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>45649</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27730,7 +27730,7 @@
         <v>44868</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>45953</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>45197.59248842593</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>45860</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27963,7 +27963,7 @@
         <v>44477</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28020,7 +28020,7 @@
         <v>45520</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>46006.38633101852</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44425</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44854</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28263,7 +28263,7 @@
         <v>45526</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28320,7 +28320,7 @@
         <v>46048.63609953703</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28382,7 +28382,7 @@
         <v>45604.71908564815</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>45773.71444444444</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28501,7 +28501,7 @@
         <v>45678.61530092593</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28563,7 +28563,7 @@
         <v>45090</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>46043</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28677,7 +28677,7 @@
         <v>45474.94802083333</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28739,7 +28739,7 @@
         <v>45474</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45526.47293981481</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>46010</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28920,7 +28920,7 @@
         <v>46010</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28977,7 +28977,7 @@
         <v>46010</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>46010</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>46010</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>44802</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>44851</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>45534.30302083334</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29324,7 +29324,7 @@
         <v>44454</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29386,7 +29386,7 @@
         <v>45572</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29448,7 +29448,7 @@
         <v>45923</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29505,7 +29505,7 @@
         <v>45883</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45572.67520833333</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>45572.67773148148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45113.95083333334</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45763.34474537037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29815,7 +29815,7 @@
         <v>45224</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29877,7 +29877,7 @@
         <v>45474.94982638889</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>45505</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>45611.65689814815</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30063,7 +30063,7 @@
         <v>45565.49210648148</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>45124</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         <v>45113</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30249,7 +30249,7 @@
         <v>45222</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>45555.47401620371</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>44866</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30425,7 +30425,7 @@
         <v>45590</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30549,7 +30549,7 @@
         <v>45078</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30611,7 +30611,7 @@
         <v>45608.69555555555</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30673,7 +30673,7 @@
         <v>45601.70364583333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30735,7 +30735,7 @@
         <v>45259.43483796297</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30797,7 +30797,7 @@
         <v>45258.67847222222</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30854,7 +30854,7 @@
         <v>45028</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30911,7 +30911,7 @@
         <v>45093</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30973,7 +30973,7 @@
         <v>45471.27252314815</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31035,7 +31035,7 @@
         <v>44355</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31097,7 +31097,7 @@
         <v>44984</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31159,7 +31159,7 @@
         <v>44841</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44841</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31283,7 +31283,7 @@
         <v>44984</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>44984</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31407,7 +31407,7 @@
         <v>44984</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31469,7 +31469,7 @@
         <v>44984</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31526,7 +31526,7 @@
         <v>44984.94033564815</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31588,7 +31588,7 @@
         <v>45490</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31645,7 +31645,7 @@
         <v>45764.46019675926</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31702,7 +31702,7 @@
         <v>45601.4096875</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>45639.58967592593</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>45601.51266203704</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31888,7 +31888,7 @@
         <v>45022</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31950,7 +31950,7 @@
         <v>45603.69465277778</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32012,7 +32012,7 @@
         <v>45576</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>45603.71284722222</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32136,7 +32136,7 @@
         <v>44370</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32193,7 +32193,7 @@
         <v>45555.344375</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32255,7 +32255,7 @@
         <v>45258.60766203704</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32317,7 +32317,7 @@
         <v>45758</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32379,7 +32379,7 @@
         <v>45490</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32436,7 +32436,7 @@
         <v>45490</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32493,7 +32493,7 @@
         <v>45490</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32550,7 +32550,7 @@
         <v>45490</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32607,7 +32607,7 @@
         <v>45057</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32669,7 +32669,7 @@
         <v>45073</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32731,7 +32731,7 @@
         <v>45622</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32793,7 +32793,7 @@
         <v>45565.91135416667</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32850,7 +32850,7 @@
         <v>45645</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32907,7 +32907,7 @@
         <v>45197</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>44477</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>45451</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33083,7 +33083,7 @@
         <v>45783.96920138889</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33140,7 +33140,7 @@
         <v>45451</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33202,7 +33202,7 @@
         <v>45791.61278935185</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33264,7 +33264,7 @@
         <v>45603.92878472222</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -575,7 +575,7 @@
         <v>45680</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44539</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>45474</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45672.48186342593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45476.57167824074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>45237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>45805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45985.5733912037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45484</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45915.62523148148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44722</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>45174.92293981482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>45672.48600694445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>45993</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>45832.63534722223</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>45596</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>45810</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45986.63600694444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45986.36518518518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44552</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>45476.54096064815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>45813</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>45786.44121527778</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>45940.51069444444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45986.3443287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>44474</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>45841.36481481481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44490</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>44441.94325231481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>45440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>45134</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>46013.39665509259</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>46042</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44545</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>45699</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>45124</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>45789.60505787037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45799.34494212963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44726</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45748</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>45884.53171296296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>45957.53907407408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>45971.61633101852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>45981.46185185185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>45484</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>45992.61405092593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>45783.53160879629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>44391</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45567</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45608</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>45567</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45826.34621527778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45891.58591435185</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>44545</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>45838.69793981482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>45170</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45845.5409375</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>45915.65525462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>45918.38981481481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>45919.56230324074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>45876.4228125</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45944.61743055555</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>45958.34751157407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>45225</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>45672</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>45974.63607638889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>46027</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>45600.42096064815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45572.67306712963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>45611.37796296296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>45596</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>45799.34662037037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>44404</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44820</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44676</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>44393</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44543</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44543</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44543</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44543</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44810</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44543</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44586</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44586.93454861111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44362</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44663</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>44685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44586.93534722222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44433</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>44539</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44378</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44743</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44539</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44543.94331018518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44543.94414351852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>44586</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>44573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>44417</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44824</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44824</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44358</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44868</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44382</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>45394</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>45028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>44966</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45505</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45106.94556712963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>45699</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>44841</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44539.94476851852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>45306</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44824</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>45586</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>45770.38886574074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>45482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>45463</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>45222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>45558</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>45596.6649537037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>45086</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>45482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44841</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>45664.4005787037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>45677.61483796296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>45349</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>45596.34576388889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>45596.34599537037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>45124</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>45491</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>45572.66908564815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         <v>44984.94069444444</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44984.94076388889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>45649</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>45819.59027777778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>45590</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44984</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44984.93940972222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44984</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>45819.63649305556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45819.59802083333</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>45664</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13311,7 +13311,7 @@
         <v>45664</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>45824</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>45824</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>45679</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>45824.63607638889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>45891.58376157407</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44873</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>45827.34571759259</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>45693</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>45827.34537037037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>45827.34717592593</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>45827.34607638889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>45827.34640046296</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45935</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45827.34695601852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>45827.34756944444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44862</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>45826.34438657408</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>45826.3453125</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>45826.345</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>45826.34565972222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>45257</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>45488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>45323</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>45610</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45897.46922453704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45897.38686342593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45897</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>45901.344375</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>45124.95214120371</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45646.68362268519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45646</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45838.70071759259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>45904</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>45043</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>45905.61263888889</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45904.34486111111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>45516</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>45909.34434027778</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>45909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45841.57357638889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>45907</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>45841.53164351852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45841.54601851852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45841.57400462963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45841.3704050926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>45915.44868055556</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45517.3762037037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45842.3446875</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45912.34276620371</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45613.67967592592</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44462</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45917.59425925926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>44889</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>45852.34420138889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>45917.4485300926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>45919.34540509259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>45596.34523148148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>45918.61519675926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>44841</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>45919.34533564815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45918.42957175926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45170.95657407407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>44966</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>45856.36497685185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45842.34456018519</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>45861.4019212963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>44391</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45602</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>45925.66606481482</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>45925.67710648148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>45867.38582175926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>45925.66335648148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>45868.5107175926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>45887</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>45807</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>45868.40723379629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>45474.95037037037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>45474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>45474</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>45928.34450231482</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>45931</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>45931</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>45903</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>45930.67752314815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>45875.51827546296</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>45610.58070601852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>45933</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>45933</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>45933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>45491</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>45664.34549768519</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>45880.57349537037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>45881.57443287037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>45883</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>45883.34554398148</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>45755.46942129629</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>45883.34521990741</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>45939.34488425926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>45937.53831018518</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19490,7 +19490,7 @@
         <v>45939.34547453704</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45884.49027777778</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44493</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45942.61506944444</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>45942.61520833334</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>45534.64626157407</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>45943.62515046296</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>45940.58270833334</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>45940.50591435185</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20048,7 +20048,7 @@
         <v>45944.62211805556</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>45526.39714120371</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45884.46925925926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>45110.92523148148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>45946.34598379629</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45946.34690972222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>45946.36519675926</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45947.3453125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>45216</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20596,7 +20596,7 @@
         <v>45946.36513888889</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>45951.55287037037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         <v>45028</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>45951.57585648148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>45951.55253472222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45951.58004629629</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>45951.34469907408</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>45951</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>45951.51141203703</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21149,7 +21149,7 @@
         <v>45951</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>45951.57743055555</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>45951.57791666667</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45950.63737268518</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45950.63739583334</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>45953.59836805556</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>45953.56256944445</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45952.69846064815</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44984</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45953.59943287037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45953.59979166667</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45953.59483796296</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45649</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44378</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44437</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44984</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22121,7 +22121,7 @@
         <v>45957</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>45721</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>44589</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>45960</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>45168.93785879629</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45965.65212962963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45964.67798611111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45965.72071759259</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45967</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45373</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45516.63964120371</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45166</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>45971.6684837963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>45875.69855324074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23011,7 +23011,7 @@
         <v>45968.5525</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>45973.55615740741</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>45973.58731481482</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45972.40754629629</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23254,7 +23254,7 @@
         <v>45975</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
         <v>45974.63550925926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>45974.63583333333</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45974.72184027778</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>45110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45974.63099537037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45974.63530092593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45974.59608796296</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>45975.34825231481</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45974.64890046296</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>45974.68207175926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>45974.44472222222</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
         <v>45974.44701388889</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>45737</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44477</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45405.67028935185</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>45979.65127314815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45979.54135416666</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>45982.61763888889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>45985.56795138889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45985.58361111111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>45985.58466435185</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24593,7 +24593,7 @@
         <v>45073</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>45721</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>45743</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>45609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>45986</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>45113.95096064815</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45993</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45973</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25074,7 +25074,7 @@
         <v>45994</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>45988.42763888889</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25198,7 +25198,7 @@
         <v>45601.66423611111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         <v>44980</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44980</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>45604.34443287037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>45544</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>45474.95196759259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>45474.95246527778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>45995.42780092593</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>45995</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>45258</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>45397.95770833334</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>45610</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>45994.42386574074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>45649</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>45953</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>45197.59248842593</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44477</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>45520</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>44425</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26423,7 +26423,7 @@
         <v>44854</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>45526</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45860</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45604.71908564815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>45773.71444444444</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>46006.38633101852</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>45678.61530092593</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26837,7 +26837,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26894,7 +26894,7 @@
         <v>46048.63609953703</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45474.94802083333</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45474</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27080,7 +27080,7 @@
         <v>45526.47293981481</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27137,7 +27137,7 @@
         <v>44802</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>46010</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>46010</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44851</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>46010</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45534.30302083334</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27484,7 +27484,7 @@
         <v>45572</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>45923</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>45883</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45572.67520833333</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>45113.95083333334</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>46021.44820601852</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>45572.67773148148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>45763.34474537037</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>45912</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>45224</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44454</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>45988.53171296296</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>45474.94982638889</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28275,7 +28275,7 @@
         <v>46010</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28332,7 +28332,7 @@
         <v>46010</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>45912</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28456,7 +28456,7 @@
         <v>46009</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>45505</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>45611.65689814815</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>45565.49210648148</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>45124</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>45113</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>45222</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>45993.54810185185</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>45555.47401620371</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>45957</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>45992.45447916666</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>44866</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>45590</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29247,7 +29247,7 @@
         <v>46043</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         <v>45994.68775462963</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>46030.38719907407</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29428,7 +29428,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45078</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29552,7 +29552,7 @@
         <v>45608.69555555555</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>45601.70364583333</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29676,7 +29676,7 @@
         <v>45259.43483796297</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45258.67847222222</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45028</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>45093</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>45471.27252314815</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44355</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>44984</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30100,7 +30100,7 @@
         <v>44841</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30162,7 +30162,7 @@
         <v>44841</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44984</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>44984</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>44984</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>44984</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>44984.94033564815</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30529,7 +30529,7 @@
         <v>45490</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30586,7 +30586,7 @@
         <v>45764.46019675926</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30643,7 +30643,7 @@
         <v>45601.4096875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30705,7 +30705,7 @@
         <v>45639.58967592593</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30767,7 +30767,7 @@
         <v>45601.51266203704</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>45022</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>45603.69465277778</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>45576</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31015,7 +31015,7 @@
         <v>45603.71284722222</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         <v>44370</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31134,7 +31134,7 @@
         <v>45555.344375</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>45258.60766203704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31258,7 +31258,7 @@
         <v>45758</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31320,7 +31320,7 @@
         <v>45490</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31377,7 +31377,7 @@
         <v>45490</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31434,7 +31434,7 @@
         <v>45490</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31491,7 +31491,7 @@
         <v>45490</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31548,7 +31548,7 @@
         <v>45057</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>45073</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31672,7 +31672,7 @@
         <v>45622</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45565.91135416667</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45645</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45197</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44477</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45451</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32024,7 +32024,7 @@
         <v>45783.96920138889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32081,7 +32081,7 @@
         <v>45451</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>45791.61278935185</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>45603.92878472222</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>45799.34543981482</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>45799.34598379629</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         <v>45476.49958333333</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32443,7 +32443,7 @@
         <v>45544</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>45258</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32567,7 +32567,7 @@
         <v>45259.49666666667</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>45622</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32691,7 +32691,7 @@
         <v>45608</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32748,7 +32748,7 @@
         <v>45597</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>45425</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>45596</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32929,7 +32929,7 @@
         <v>45532</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32986,7 +32986,7 @@
         <v>45813.65023148148</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -575,7 +575,7 @@
         <v>45680</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44539</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>45474</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45672.48186342593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45476.57167824074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>45237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>45805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45985.5733912037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45484</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45915.62523148148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44722</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>45174.92293981482</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>45672.48600694445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>45993</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>45832.63534722223</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>45596</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>45810</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45986.63600694444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45986.36518518518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44552</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>45476.54096064815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>45813</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>45786.44121527778</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>45940.51069444444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45986.3443287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>44474</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>45841.36481481481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44490</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>44441.94325231481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>45113</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>45440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>45134</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>45114</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>46013.39665509259</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>46042</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44545</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>45699</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>45124</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>45789.60505787037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45799.34494212963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44726</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45748</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>45884.53171296296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>45957.53907407408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>45971.61633101852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>45981.46185185185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>45484</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>45992.61405092593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>45783.53160879629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>44391</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45567</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45608</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>45567</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45826.34621527778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45891.58591435185</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>44545</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>45838.69793981482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>45170</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45845.5409375</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>45915.65525462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>45918.38981481481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>45919.56230324074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>45876.4228125</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45944.61743055555</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>45958.34751157407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>45225</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>45672</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>45974.63607638889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>46027</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>45600.42096064815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45572.67306712963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>45611.37796296296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>45596</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>45799.34662037037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>44404</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44820</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44676</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>44393</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44543</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44543</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44543</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44543</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44810</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44543</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44586</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44586.93454861111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44362</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44663</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>44685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44586.93534722222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44433</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>44539</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44378</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44743</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44539</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44543.94331018518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44543.94414351852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>44586</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>44573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>44417</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44824</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44824</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44358</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44868</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44532</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44382</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>45394</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>45028</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>44966</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45505</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45106.94556712963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45671</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>45699</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>44841</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>44539.94476851852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>45306</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44824</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>45586</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>45770.38886574074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>45482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>45463</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>45222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>45558</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>45596.6649537037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>45086</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>45482</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44841</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>45664.4005787037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>45677.61483796296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>45349</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>45596.34576388889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>45596.34599537037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>45124</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>45491</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>45572.66908564815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         <v>44984.94069444444</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44984.94076388889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>45649</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>45819.59027777778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>45590</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>44984</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>44984.93940972222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>44984</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>45819.63649305556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>45819.59802083333</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>45664</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13311,7 +13311,7 @@
         <v>45664</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>45824</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>45824</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>45679</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>45824.63607638889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>45891.58376157407</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44873</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>45827.34571759259</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>45693</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>45827.34537037037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>45827.34717592593</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>45827.34607638889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>45827.34640046296</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>45935</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45827.34695601852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>45827.34756944444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44862</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>45826.34438657408</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>45826.3453125</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>45826.345</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>45826.34565972222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>45257</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>45488</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>45323</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>45610</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45897.46922453704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>45897.38686342593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45897</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>45901.344375</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>45124.95214120371</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>45646.68362268519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45646</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45838.70071759259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>45904</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>45043</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>45905.61263888889</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45904.34486111111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>45516</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>45909.34434027778</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>45909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45841.57357638889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>45907</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>45841.53164351852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>45841.54601851852</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45841.57400462963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45841.3704050926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>45915.44868055556</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45517.3762037037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45842.3446875</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45671</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45912.34276620371</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45613.67967592592</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44462</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>45917.59425925926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>44889</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>45852.34420138889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>45917.4485300926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>45919.34540509259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>45596.34523148148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>45918.61519675926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>44841</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>45919.34533564815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45918.42957175926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45170.95657407407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>44966</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>45856.36497685185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45842.34456018519</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>45861.4019212963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>44391</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45602</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>45925.66606481482</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>45925.67710648148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>45867.38582175926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>45925.66335648148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>45868.5107175926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>45887</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>45807</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>45868.40723379629</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>45474.95037037037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>45474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>45474</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>45928.34450231482</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>45931</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>45931</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>45903</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>45930.67752314815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>45875.51827546296</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>45610.58070601852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>45933</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>45933</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>45933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>45491</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>45664.34549768519</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>45880.57349537037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>45881.57443287037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>45883</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>45883.34554398148</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>45755.46942129629</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>45883.34521990741</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>45939.34488425926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>45937.53831018518</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19490,7 +19490,7 @@
         <v>45939.34547453704</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>45884.49027777778</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44493</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45942.61506944444</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>45942.61520833334</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>45534.64626157407</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>45943.62515046296</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>45940.58270833334</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>45940.50591435185</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20048,7 +20048,7 @@
         <v>45944.62211805556</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>45526.39714120371</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>45884.46925925926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>45110.92523148148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>45946.34598379629</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45946.34690972222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>45946.36519675926</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45947.3453125</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>45216</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20596,7 +20596,7 @@
         <v>45946.36513888889</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>45951.55287037037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         <v>45028</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>45951.57585648148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>45951.55253472222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45951.58004629629</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>45951.34469907408</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>45951</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>45951.51141203703</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21149,7 +21149,7 @@
         <v>45951</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>45951.57743055555</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>45951.57791666667</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45950.63737268518</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45950.63739583334</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>45953.59836805556</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21511,7 +21511,7 @@
         <v>45953.56256944445</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45952.69846064815</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44984</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45953.59943287037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45953.59979166667</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45953.59483796296</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45649</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44378</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44437</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44984</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22121,7 +22121,7 @@
         <v>45957</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>45721</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>44589</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>45960</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>45168.93785879629</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45965.65212962963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45964.67798611111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45965.72071759259</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45967</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45373</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45516.63964120371</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45166</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>45971.6684837963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22954,7 +22954,7 @@
         <v>45875.69855324074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23011,7 +23011,7 @@
         <v>45968.5525</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>45973.55615740741</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>45973.58731481482</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45972.40754629629</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23254,7 +23254,7 @@
         <v>45975</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
         <v>45974.63550925926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>45974.63583333333</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45974.72184027778</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>45110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45974.63099537037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45974.63530092593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45974.59608796296</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>45975.34825231481</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>45974.64890046296</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>45974.68207175926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>45974.44472222222</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
         <v>45974.44701388889</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>45737</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>44477</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45405.67028935185</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>45979.65127314815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45979.54135416666</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>45982.61763888889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>45985.56795138889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45985.58361111111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>45985.58466435185</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24593,7 +24593,7 @@
         <v>45073</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>45721</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>45743</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>45609</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>45986</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>45113.95096064815</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45993</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45973</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25074,7 +25074,7 @@
         <v>45994</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>45988.42763888889</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25198,7 +25198,7 @@
         <v>45601.66423611111</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         <v>44980</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44980</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>45604.34443287037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>45544</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>45474.95196759259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>45474.95246527778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>45995.42780092593</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25694,7 +25694,7 @@
         <v>45995</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25756,7 +25756,7 @@
         <v>45258</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>45397.95770833334</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>45610</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>45994.42386574074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>45649</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         <v>44868</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26123,7 +26123,7 @@
         <v>45953</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>45197.59248842593</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44477</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>45520</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>44425</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26423,7 +26423,7 @@
         <v>44854</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26485,7 +26485,7 @@
         <v>45526</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>45860</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>45604.71908564815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>45773.71444444444</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>46006.38633101852</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>45678.61530092593</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26837,7 +26837,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26894,7 +26894,7 @@
         <v>46048.63609953703</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45474.94802083333</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45474</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27080,7 +27080,7 @@
         <v>45526.47293981481</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27137,7 +27137,7 @@
         <v>44802</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>46010</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>46010</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44851</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>46010</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45534.30302083334</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27484,7 +27484,7 @@
         <v>45572</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27546,7 +27546,7 @@
         <v>45923</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
         <v>45883</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45572.67520833333</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>45113.95083333334</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>46021.44820601852</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>45572.67773148148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>45763.34474537037</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>45912</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>45224</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44454</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28151,7 +28151,7 @@
         <v>45988.53171296296</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>45474.94982638889</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28275,7 +28275,7 @@
         <v>46010</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28332,7 +28332,7 @@
         <v>46010</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28394,7 +28394,7 @@
         <v>45912</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28456,7 +28456,7 @@
         <v>46009</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>45505</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>45611.65689814815</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>45565.49210648148</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>45124</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>45113</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>45222</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>45993.54810185185</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>45555.47401620371</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>45957</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>45992.45447916666</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>44866</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>45590</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29247,7 +29247,7 @@
         <v>46043</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         <v>45994.68775462963</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29366,7 +29366,7 @@
         <v>46030.38719907407</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29428,7 +29428,7 @@
         <v>45099</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45078</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29552,7 +29552,7 @@
         <v>45608.69555555555</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>45601.70364583333</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29676,7 +29676,7 @@
         <v>45259.43483796297</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45258.67847222222</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45028</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>45093</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>45471.27252314815</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44355</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>44984</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30100,7 +30100,7 @@
         <v>44841</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30162,7 +30162,7 @@
         <v>44841</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>44984</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>44984</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>44984</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>44984</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>44984.94033564815</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30529,7 +30529,7 @@
         <v>45490</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30586,7 +30586,7 @@
         <v>45764.46019675926</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30643,7 +30643,7 @@
         <v>45601.4096875</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30705,7 +30705,7 @@
         <v>45639.58967592593</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30767,7 +30767,7 @@
         <v>45601.51266203704</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>45022</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>45603.69465277778</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>45576</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31015,7 +31015,7 @@
         <v>45603.71284722222</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         <v>44370</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31134,7 +31134,7 @@
         <v>45555.344375</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>45258.60766203704</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31258,7 +31258,7 @@
         <v>45758</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31320,7 +31320,7 @@
         <v>45490</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31377,7 +31377,7 @@
         <v>45490</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31434,7 +31434,7 @@
         <v>45490</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31491,7 +31491,7 @@
         <v>45490</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31548,7 +31548,7 @@
         <v>45057</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>45073</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31672,7 +31672,7 @@
         <v>45622</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45565.91135416667</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45645</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45197</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>44477</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45451</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32024,7 +32024,7 @@
         <v>45783.96920138889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32081,7 +32081,7 @@
         <v>45451</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32143,7 +32143,7 @@
         <v>45791.61278935185</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>45603.92878472222</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>45799.34543981482</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>45799.34598379629</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         <v>45476.49958333333</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32443,7 +32443,7 @@
         <v>45544</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32505,7 +32505,7 @@
         <v>45258</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32567,7 +32567,7 @@
         <v>45259.49666666667</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>45622</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32691,7 +32691,7 @@
         <v>45608</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32748,7 +32748,7 @@
         <v>45597</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>45425</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>45596</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32929,7 +32929,7 @@
         <v>45532</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32986,7 +32986,7 @@
         <v>45813.65023148148</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -575,7 +575,7 @@
         <v>45680</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44539</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         <v>45474</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45672.48186342593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45476.57167824074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>45237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>45805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>45985.5733912037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>45484</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>45915.62523148148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>44722</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>45993</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>45174.92293981482</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>45672.48600694445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>45832.63534722223</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>45596</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>45810</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44552</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45986.36518518518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45986.63600694444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>45476.54096064815</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>45813</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         <v>45786.44121527778</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>44722</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45940.51069444444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>45986.3443287037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>45841.36481481481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>44441.94325231481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>45440</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>45113</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>45134</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44545</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>45124</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>45114</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>46013.39665509259</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>46042</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>45699</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         <v>45789.60505787037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45799.34494212963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>44726</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>44865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>45884.53171296296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         <v>45957.53907407408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>45971.61633101852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>45981.46185185185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>45484</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>45992.61405092593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>45748</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>45783.53160879629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>44391</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45225</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45596</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>45567</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6599,7 +6599,7 @@
         <v>45567</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45891.58591435185</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>45826.34621527778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>45838.69793981482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>45600.42096064815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>45608</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>45611.37796296296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>45845.5409375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>45915.65525462963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>45918.38981481481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>45919.56230324074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>45876.4228125</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45672</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>45944.61743055555</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45958.34751157407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>45170</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>45974.63607638889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>46027</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>45572.67306712963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>45799.34662037037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>44404</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44820</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44676</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>44393</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44543</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44543</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44543</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44543</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>44810</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>44586</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
         <v>44586.93454861111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>44543</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44362</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44663</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>44685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44586.93534722222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44433</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>44539</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44378</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44543</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44543</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44433</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44743</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44539</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44543.94331018518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44543.94414351852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>44586</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>44573</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>44417</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44824</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         <v>44824</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>44358</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
         <v>44532</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
         <v>44868</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>45505</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>44854</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         <v>45086</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>45394</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11082,7 +11082,7 @@
         <v>44862</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>44841</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>44824</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44873</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44382</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>45113.95083333334</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>45222</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44866</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11568,7 +11568,7 @@
         <v>45106.94556712963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44437</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44868</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>45770.38886574074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>45474.95196759259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>45474.95246527778</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11930,7 +11930,7 @@
         <v>45474.95037037037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>45474</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12054,7 +12054,7 @@
         <v>45474</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>45463</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>45258.60766203704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>45471.27252314815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>45526</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44966</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>45505</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>45604.34443287037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>44980</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44980</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44477</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44984</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>44841</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>45073</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>45491</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>45646.68362268519</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>45646</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>45258</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>45596</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>45884.46925925926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>45597</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>45544</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>45608</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>45425</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>45883</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>45622</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>45883.34554398148</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>45558</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>45526.39714120371</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>45532</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>45664.34549768519</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>45664</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45664</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>45491</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45572.66908564815</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45813.65023148148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>45028</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>45590</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>45891.58376157407</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>44984.93940972222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44984</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>45819.59027777778</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>45819.63649305556</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45819.59802083333</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>45596.34576388889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44984.94069444444</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44984.94076388889</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>45526.47293981481</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>45824</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>45586</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>45824</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>45824.63607638889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>45826.34438657408</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>45826.3453125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45935</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>45826.345</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>45826.34565972222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45897.38686342593</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45897</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>45897.46922453704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>45827.34756944444</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>45827.34571759259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45827.34607638889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>45827.34640046296</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45827.34695601852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>45827.34537037037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>45827.34717592593</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>45901.344375</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44425</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>45904</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>45904.34486111111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>45590</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45596.34599537037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>45905.61263888889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45907</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>45834</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>45601.4096875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>45838.70071759259</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>45841.57357638889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>45099</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>45841.3704050926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45841.54601851852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>45909</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45841.53164351852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17142,7 +17142,7 @@
         <v>45841.57400462963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>45909.34434027778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>45842.3446875</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>45565.49210648148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45613.67967592592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45601.66423611111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>45912.34276620371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>45664.4005787037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>44477</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>45111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17747,7 +17747,7 @@
         <v>45852.34420138889</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>45915.44868055556</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         <v>45610</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>45610</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>45601.51266203704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>45856.36497685185</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>45645</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>44802</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>45918.42957175926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>45917.59425925926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>45861.4019212963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>45917.4485300926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>45918.61519675926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>45807</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>45868.40723379629</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>45868.5107175926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>45919.34540509259</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>45919.34533564815</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>45842.34456018519</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>45867.38582175926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>45925.66335648148</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>45925.67710648148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>45925.66606481482</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>45928.34450231482</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>45649</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>45930.67752314815</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>45693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>45887</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>45124.95214120371</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>45931</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>45875.51827546296</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>45488</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>45880.57349537037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45903</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>45028</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>45881.57443287037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>45931</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19976,7 +19976,7 @@
         <v>44841</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>45933</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>45933</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44391</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>45933</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>45110.92523148148</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>45884.49027777778</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>45937.53831018518</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>45883.34521990741</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>45940.58270833334</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>45939.34547453704</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45939.34488425926</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>45474</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45940.50591435185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>45944.62211805556</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>45516</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45943.62515046296</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>45942.61506944444</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>45942.61520833334</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>45946.36513888889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>45946.36519675926</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>45946.34598379629</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45946.34690972222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>45022</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>45950.63737268518</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>45950.63739583334</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>45947.3453125</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>45951</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21677,7 +21677,7 @@
         <v>45951.57743055555</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21739,7 +21739,7 @@
         <v>45951.57791666667</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>45649</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
         <v>45952.69846064815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45951.34469907408</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>45951</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>45951.58004629629</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>45951.55253472222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44984</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         <v>45951.51141203703</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>45951.55287037037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45951.57585648148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45953.56256944445</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45953.59979166667</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45953.59483796296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22607,7 +22607,7 @@
         <v>45953.59943287037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>45953.59836805556</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22731,7 +22731,7 @@
         <v>45957</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
         <v>45474.94802083333</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45960</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45964.67798611111</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22974,7 +22974,7 @@
         <v>45965.65212962963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>45078</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>44462</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>45965.72071759259</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44493</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>45968.5525</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>45875.69855324074</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>45967</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>45972.40754629629</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>45971.6684837963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>45124</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>45603.71284722222</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>45974.59608796296</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>45973.58731481482</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45974.72184027778</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23889,7 +23889,7 @@
         <v>45974.64890046296</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>45974.68207175926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>45610.58070601852</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>45974.63099537037</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>45973.55615740741</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24194,7 +24194,7 @@
         <v>45974.63583333333</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>45974.63530092593</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>45974.63550925926</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45974.44472222222</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45974.44701388889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24504,7 +24504,7 @@
         <v>45975.34825231481</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>45975</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>45737</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24680,7 +24680,7 @@
         <v>45979.54135416666</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         <v>45979.65127314815</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>44539.94476851852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45639.58967592593</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24928,7 +24928,7 @@
         <v>45982.61763888889</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24990,7 +24990,7 @@
         <v>45166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>44984</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44984</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44984</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25233,7 +25233,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25290,7 +25290,7 @@
         <v>44984.94033564815</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25352,7 +25352,7 @@
         <v>45986</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25409,7 +25409,7 @@
         <v>45985.56795138889</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25471,7 +25471,7 @@
         <v>45985.58361111111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>45758</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25595,7 +25595,7 @@
         <v>45405.67028935185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>45985.58466435185</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         <v>45124</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>45973</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>45743</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>45988.42763888889</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>45678.61530092593</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45721</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45565.91135416667</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26133,7 +26133,7 @@
         <v>45544</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45224</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>45994.42386574074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45601.70364583333</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>45555.47401620371</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>45349</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>45995.42780092593</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>45995</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45373</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45110</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45953</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26795,7 +26795,7 @@
         <v>45860</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26852,7 +26852,7 @@
         <v>45604.71908564815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         <v>46006.38633101852</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26971,7 +26971,7 @@
         <v>46048.63609953703</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27033,7 +27033,7 @@
         <v>45197</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27090,7 +27090,7 @@
         <v>45258.67847222222</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>46010</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>45170.95657407407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         <v>44851</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27323,7 +27323,7 @@
         <v>45883</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27385,7 +27385,7 @@
         <v>45923</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>45572</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>45306</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>45257</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>46021.44820601852</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>45912</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>45988.53171296296</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>46010</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>45474.94982638889</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44454</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>46010</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28047,7 +28047,7 @@
         <v>45763.34474537037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28109,7 +28109,7 @@
         <v>45912</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>46009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>46030.38719907407</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>46043</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>45957</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28404,7 +28404,7 @@
         <v>45994.68775462963</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>46010</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45671</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>45043</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28642,7 +28642,7 @@
         <v>44984</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28704,7 +28704,7 @@
         <v>46010</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         <v>45992.45447916666</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44889</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>44984</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28947,7 +28947,7 @@
         <v>45993.54810185185</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>45534.64626157407</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>45572.67773148148</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         <v>45721</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29190,7 +29190,7 @@
         <v>44841</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29252,7 +29252,7 @@
         <v>46077.69856481482</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>46077.6984837963</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>46077.69886574074</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29438,7 +29438,7 @@
         <v>45572.67520833333</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29500,7 +29500,7 @@
         <v>45517.3762037037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29562,7 +29562,7 @@
         <v>44370</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29619,7 +29619,7 @@
         <v>45258</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>46077.66550925926</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45576</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44966</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45993</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45994</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         <v>46077.69880787037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30048,7 +30048,7 @@
         <v>45113.95096064815</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>45073</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30172,7 +30172,7 @@
         <v>44378</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>45323</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>45596.34523148148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>45596.6649537037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>45764.46019675926</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30524,7 +30524,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30586,7 +30586,7 @@
         <v>45113</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30648,7 +30648,7 @@
         <v>45699</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30705,7 +30705,7 @@
         <v>44355</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30767,7 +30767,7 @@
         <v>44477</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30824,7 +30824,7 @@
         <v>45602</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30886,7 +30886,7 @@
         <v>45677.61483796296</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30948,7 +30948,7 @@
         <v>45622</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>45168.93785879629</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31072,7 +31072,7 @@
         <v>45451</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31134,7 +31134,7 @@
         <v>45608.69555555555</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>45482</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>45516.63964120371</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31372,7 +31372,7 @@
         <v>45679</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31434,7 +31434,7 @@
         <v>45534.30302083334</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>45520</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31558,7 +31558,7 @@
         <v>45773.71444444444</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31615,7 +31615,7 @@
         <v>45197.59248842593</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31672,7 +31672,7 @@
         <v>45609</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>44841</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31796,7 +31796,7 @@
         <v>45755.46942129629</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31858,7 +31858,7 @@
         <v>45397.95770833334</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44589</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>45482</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>45555.344375</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32096,7 +32096,7 @@
         <v>45259.43483796297</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32158,7 +32158,7 @@
         <v>45490</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32215,7 +32215,7 @@
         <v>45222</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32272,7 +32272,7 @@
         <v>45603.69465277778</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32334,7 +32334,7 @@
         <v>45216</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32396,7 +32396,7 @@
         <v>45093</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>45649</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32520,7 +32520,7 @@
         <v>45490</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32577,7 +32577,7 @@
         <v>45490</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32634,7 +32634,7 @@
         <v>45490</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32691,7 +32691,7 @@
         <v>45490</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32748,7 +32748,7 @@
         <v>45611.65689814815</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>45671</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>45783.96920138889</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>45603.92878472222</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>45451</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33043,7 +33043,7 @@
         <v>45791.61278935185</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>45476.49958333333</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>45799.34543981482</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>45799.34598379629</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33286,7 +33286,7 @@
         <v>45259.49666666667</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
